--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/13/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/13/FD_Curve.xlsx
@@ -466,10 +466,10 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11356</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.56</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.28933</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1289.33</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.3973</v>
+        <v>2.6935</v>
       </c>
       <c r="C5" t="n">
-        <v>1397.3</v>
+        <v>2693.5</v>
       </c>
     </row>
     <row r="6">
@@ -499,1066 +499,1066 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>1.48272</v>
+        <v>2.93368</v>
       </c>
       <c r="C6" t="n">
-        <v>1482.72</v>
+        <v>2933.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154987</v>
+        <v>0.154955</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5582</v>
+        <v>3.08276</v>
       </c>
       <c r="C7" t="n">
-        <v>1558.2</v>
+        <v>3082.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185963</v>
+        <v>0.185931</v>
       </c>
       <c r="B8" t="n">
-        <v>1.61873</v>
+        <v>3.20847</v>
       </c>
       <c r="C8" t="n">
-        <v>1618.73</v>
+        <v>3208.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216939</v>
+        <v>0.216908</v>
       </c>
       <c r="B9" t="n">
-        <v>1.67667</v>
+        <v>3.30425</v>
       </c>
       <c r="C9" t="n">
-        <v>1676.67</v>
+        <v>3304.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247879</v>
+        <v>0.247884</v>
       </c>
       <c r="B10" t="n">
-        <v>1.72904</v>
+        <v>3.40057</v>
       </c>
       <c r="C10" t="n">
-        <v>1729.04</v>
+        <v>3400.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278804</v>
+        <v>0.278812</v>
       </c>
       <c r="B11" t="n">
-        <v>1.77793</v>
+        <v>3.47922</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.93</v>
+        <v>3479.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309733</v>
+        <v>0.309737</v>
       </c>
       <c r="B12" t="n">
-        <v>1.82268</v>
+        <v>3.55135</v>
       </c>
       <c r="C12" t="n">
-        <v>1822.68</v>
+        <v>3551.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340654</v>
+        <v>0.340662</v>
       </c>
       <c r="B13" t="n">
-        <v>1.86531</v>
+        <v>3.61662</v>
       </c>
       <c r="C13" t="n">
-        <v>1865.31</v>
+        <v>3616.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371579</v>
+        <v>0.371587</v>
       </c>
       <c r="B14" t="n">
-        <v>1.90569</v>
+        <v>3.67884</v>
       </c>
       <c r="C14" t="n">
-        <v>1905.69</v>
+        <v>3678.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402504</v>
+        <v>0.402512</v>
       </c>
       <c r="B15" t="n">
-        <v>1.94379</v>
+        <v>3.73435</v>
       </c>
       <c r="C15" t="n">
-        <v>1943.79</v>
+        <v>3734.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433429</v>
+        <v>0.433432</v>
       </c>
       <c r="B16" t="n">
-        <v>1.97963</v>
+        <v>3.78564</v>
       </c>
       <c r="C16" t="n">
-        <v>1979.63</v>
+        <v>3785.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464354</v>
+        <v>0.464357</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0135</v>
+        <v>3.83824</v>
       </c>
       <c r="C17" t="n">
-        <v>2013.5</v>
+        <v>3838.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495279</v>
+        <v>0.495282</v>
       </c>
       <c r="B18" t="n">
-        <v>2.04596</v>
+        <v>3.88671</v>
       </c>
       <c r="C18" t="n">
-        <v>2045.96</v>
+        <v>3886.71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526204</v>
+        <v>0.526207</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0775</v>
+        <v>3.9302</v>
       </c>
       <c r="C19" t="n">
-        <v>2077.5</v>
+        <v>3930.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557129</v>
+        <v>0.557132</v>
       </c>
       <c r="B20" t="n">
-        <v>2.10816</v>
+        <v>3.97561</v>
       </c>
       <c r="C20" t="n">
-        <v>2108.16</v>
+        <v>3975.61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588054</v>
+        <v>0.5880570000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>2.13754</v>
+        <v>4.01476</v>
       </c>
       <c r="C21" t="n">
-        <v>2137.54</v>
+        <v>4014.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619096</v>
+        <v>0.619099</v>
       </c>
       <c r="B22" t="n">
-        <v>2.1664</v>
+        <v>4.05641</v>
       </c>
       <c r="C22" t="n">
-        <v>2166.4</v>
+        <v>4056.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650269</v>
+        <v>0.650272</v>
       </c>
       <c r="B23" t="n">
-        <v>2.19474</v>
+        <v>4.09284</v>
       </c>
       <c r="C23" t="n">
-        <v>2194.74</v>
+        <v>4092.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681446</v>
+        <v>0.681449</v>
       </c>
       <c r="B24" t="n">
-        <v>2.22226</v>
+        <v>4.13065</v>
       </c>
       <c r="C24" t="n">
-        <v>2222.26</v>
+        <v>4130.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712618</v>
+        <v>0.712622</v>
       </c>
       <c r="B25" t="n">
-        <v>2.24927</v>
+        <v>4.165430000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2249.27</v>
+        <v>4165.43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743791</v>
+        <v>0.743799</v>
       </c>
       <c r="B26" t="n">
-        <v>2.27545</v>
+        <v>4.1985</v>
       </c>
       <c r="C26" t="n">
-        <v>2275.45</v>
+        <v>4198.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774968</v>
+        <v>0.774971</v>
       </c>
       <c r="B27" t="n">
-        <v>2.30116</v>
+        <v>4.23259</v>
       </c>
       <c r="C27" t="n">
-        <v>2301.16</v>
+        <v>4232.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80614</v>
+        <v>0.806144</v>
       </c>
       <c r="B28" t="n">
-        <v>2.32635</v>
+        <v>4.26346</v>
       </c>
       <c r="C28" t="n">
-        <v>2326.35</v>
+        <v>4263.46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837317</v>
+        <v>0.837321</v>
       </c>
       <c r="B29" t="n">
-        <v>2.35101</v>
+        <v>4.29288</v>
       </c>
       <c r="C29" t="n">
-        <v>2351.01</v>
+        <v>4292.88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.86849</v>
+        <v>0.868493</v>
       </c>
       <c r="B30" t="n">
-        <v>2.37519</v>
+        <v>4.32311</v>
       </c>
       <c r="C30" t="n">
-        <v>2375.19</v>
+        <v>4323.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899662</v>
+        <v>0.899666</v>
       </c>
       <c r="B31" t="n">
-        <v>2.39899</v>
+        <v>4.35213</v>
       </c>
       <c r="C31" t="n">
-        <v>2398.99</v>
+        <v>4352.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93084</v>
+        <v>0.930843</v>
       </c>
       <c r="B32" t="n">
-        <v>2.42237</v>
+        <v>4.37908</v>
       </c>
       <c r="C32" t="n">
-        <v>2422.37</v>
+        <v>4379.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962012</v>
+        <v>0.962015</v>
       </c>
       <c r="B33" t="n">
-        <v>2.44544</v>
+        <v>4.40513</v>
       </c>
       <c r="C33" t="n">
-        <v>2445.44</v>
+        <v>4405.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993185</v>
+        <v>0.993192</v>
       </c>
       <c r="B34" t="n">
-        <v>2.46809</v>
+        <v>4.43106</v>
       </c>
       <c r="C34" t="n">
-        <v>2468.09</v>
+        <v>4431.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02416</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>2.49028</v>
+        <v>4.45674</v>
       </c>
       <c r="C35" t="n">
-        <v>2490.28</v>
+        <v>4456.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05513</v>
+        <v>1.05518</v>
       </c>
       <c r="B36" t="n">
-        <v>2.51197</v>
+        <v>4.4817</v>
       </c>
       <c r="C36" t="n">
-        <v>2511.97</v>
+        <v>4481.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0861</v>
+        <v>1.08615</v>
       </c>
       <c r="B37" t="n">
-        <v>2.53327</v>
+        <v>4.50566</v>
       </c>
       <c r="C37" t="n">
-        <v>2533.27</v>
+        <v>4505.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11707</v>
+        <v>1.11712</v>
       </c>
       <c r="B38" t="n">
-        <v>2.55428</v>
+        <v>4.528770000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>2554.28</v>
+        <v>4528.77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14803</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>2.57509</v>
+        <v>4.55115</v>
       </c>
       <c r="C39" t="n">
-        <v>2575.09</v>
+        <v>4551.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.179</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>2.59569</v>
+        <v>4.57308</v>
       </c>
       <c r="C40" t="n">
-        <v>2595.69</v>
+        <v>4573.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20997</v>
+        <v>1.21002</v>
       </c>
       <c r="B41" t="n">
-        <v>2.61583</v>
+        <v>4.59448</v>
       </c>
       <c r="C41" t="n">
-        <v>2615.83</v>
+        <v>4594.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24093</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>2.63555</v>
+        <v>4.61549</v>
       </c>
       <c r="C42" t="n">
-        <v>2635.55</v>
+        <v>4615.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27191</v>
+        <v>1.27196</v>
       </c>
       <c r="B43" t="n">
-        <v>2.65501</v>
+        <v>4.63608</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.01</v>
+        <v>4636.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30287</v>
+        <v>1.30292</v>
       </c>
       <c r="B44" t="n">
-        <v>2.6743</v>
+        <v>4.65618</v>
       </c>
       <c r="C44" t="n">
-        <v>2674.3</v>
+        <v>4656.18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33384</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>2.69336</v>
+        <v>4.67581</v>
       </c>
       <c r="C45" t="n">
-        <v>2693.36</v>
+        <v>4675.81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36481</v>
+        <v>1.36486</v>
       </c>
       <c r="B46" t="n">
-        <v>2.71211</v>
+        <v>4.69501</v>
       </c>
       <c r="C46" t="n">
-        <v>2712.11</v>
+        <v>4695.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39577</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>2.73043</v>
+        <v>4.71378</v>
       </c>
       <c r="C47" t="n">
-        <v>2730.43</v>
+        <v>4713.78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42674</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>2.74849</v>
+        <v>4.73212</v>
       </c>
       <c r="C48" t="n">
-        <v>2748.49</v>
+        <v>4732.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45771</v>
+        <v>1.45776</v>
       </c>
       <c r="B49" t="n">
-        <v>2.76638</v>
+        <v>4.75007</v>
       </c>
       <c r="C49" t="n">
-        <v>2766.38</v>
+        <v>4750.07</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48868</v>
+        <v>1.48873</v>
       </c>
       <c r="B50" t="n">
-        <v>2.78409</v>
+        <v>4.76762</v>
       </c>
       <c r="C50" t="n">
-        <v>2784.09</v>
+        <v>4767.62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51965</v>
+        <v>1.5197</v>
       </c>
       <c r="B51" t="n">
-        <v>2.80155</v>
+        <v>4.78479</v>
       </c>
       <c r="C51" t="n">
-        <v>2801.55</v>
+        <v>4784.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55061</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>2.81867</v>
+        <v>4.80159</v>
       </c>
       <c r="C52" t="n">
-        <v>2818.67</v>
+        <v>4801.59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58158</v>
+        <v>1.58163</v>
       </c>
       <c r="B53" t="n">
-        <v>2.83559</v>
+        <v>4.81807</v>
       </c>
       <c r="C53" t="n">
-        <v>2835.59</v>
+        <v>4818.07</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61255</v>
+        <v>1.6126</v>
       </c>
       <c r="B54" t="n">
-        <v>2.8523</v>
+        <v>4.8342</v>
       </c>
       <c r="C54" t="n">
-        <v>2852.3</v>
+        <v>4834.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64352</v>
+        <v>1.64357</v>
       </c>
       <c r="B55" t="n">
-        <v>2.86882</v>
+        <v>4.850020000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>2868.82</v>
+        <v>4850.02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67448</v>
+        <v>1.67454</v>
       </c>
       <c r="B56" t="n">
-        <v>2.88512</v>
+        <v>4.86558</v>
       </c>
       <c r="C56" t="n">
-        <v>2885.12</v>
+        <v>4865.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70545</v>
+        <v>1.70551</v>
       </c>
       <c r="B57" t="n">
-        <v>2.90122</v>
+        <v>4.880800000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2901.22</v>
+        <v>4880.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73642</v>
+        <v>1.73647</v>
       </c>
       <c r="B58" t="n">
-        <v>2.91718</v>
+        <v>4.895770000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>2917.18</v>
+        <v>4895.77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76739</v>
+        <v>1.76744</v>
       </c>
       <c r="B59" t="n">
-        <v>2.933</v>
+        <v>4.91042</v>
       </c>
       <c r="C59" t="n">
-        <v>2933</v>
+        <v>4910.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79836</v>
+        <v>1.79841</v>
       </c>
       <c r="B60" t="n">
-        <v>2.94859</v>
+        <v>4.92475</v>
       </c>
       <c r="C60" t="n">
-        <v>2948.59</v>
+        <v>4924.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82932</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>2.96398</v>
+        <v>4.938770000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>2963.98</v>
+        <v>4938.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86029</v>
+        <v>1.86035</v>
       </c>
       <c r="B62" t="n">
-        <v>2.97919</v>
+        <v>4.952439999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>2979.19</v>
+        <v>4952.44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89126</v>
+        <v>1.89131</v>
       </c>
       <c r="B63" t="n">
-        <v>2.99424</v>
+        <v>4.96588</v>
       </c>
       <c r="C63" t="n">
-        <v>2994.24</v>
+        <v>4965.88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92222</v>
+        <v>1.92228</v>
       </c>
       <c r="B64" t="n">
-        <v>3.00912</v>
+        <v>4.97902</v>
       </c>
       <c r="C64" t="n">
-        <v>3009.12</v>
+        <v>4979.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9532</v>
+        <v>1.95325</v>
       </c>
       <c r="B65" t="n">
-        <v>3.02388</v>
+        <v>4.991989999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>3023.88</v>
+        <v>4991.99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98416</v>
+        <v>1.98422</v>
       </c>
       <c r="B66" t="n">
-        <v>3.0385</v>
+        <v>5.00479</v>
       </c>
       <c r="C66" t="n">
-        <v>3038.5</v>
+        <v>5004.79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01477</v>
+        <v>2.01532</v>
       </c>
       <c r="B67" t="n">
-        <v>3.05291</v>
+        <v>5.01737</v>
       </c>
       <c r="C67" t="n">
-        <v>3052.91</v>
+        <v>5017.37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04532</v>
+        <v>2.0467</v>
       </c>
       <c r="B68" t="n">
-        <v>3.06718</v>
+        <v>5.0297</v>
       </c>
       <c r="C68" t="n">
-        <v>3067.18</v>
+        <v>5029.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07588</v>
+        <v>2.07808</v>
       </c>
       <c r="B69" t="n">
-        <v>3.08128</v>
+        <v>5.041770000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>3081.28</v>
+        <v>5041.77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10643</v>
+        <v>2.10946</v>
       </c>
       <c r="B70" t="n">
-        <v>3.09526</v>
+        <v>5.053529999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>3095.26</v>
+        <v>5053.53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13699</v>
+        <v>2.14013</v>
       </c>
       <c r="B71" t="n">
-        <v>3.10912</v>
+        <v>5.065060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>3109.12</v>
+        <v>5065.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16754</v>
+        <v>2.17068</v>
       </c>
       <c r="B72" t="n">
-        <v>3.12281</v>
+        <v>5.07643</v>
       </c>
       <c r="C72" t="n">
-        <v>3122.81</v>
+        <v>5076.43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.1981</v>
+        <v>2.20124</v>
       </c>
       <c r="B73" t="n">
-        <v>3.13639</v>
+        <v>5.08762</v>
       </c>
       <c r="C73" t="n">
-        <v>3136.39</v>
+        <v>5087.62</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22865</v>
+        <v>2.2318</v>
       </c>
       <c r="B74" t="n">
-        <v>3.14982</v>
+        <v>5.098640000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3149.82</v>
+        <v>5098.64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25921</v>
+        <v>2.26235</v>
       </c>
       <c r="B75" t="n">
-        <v>3.16311</v>
+        <v>5.109430000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3163.11</v>
+        <v>5109.43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.28976</v>
+        <v>2.29291</v>
       </c>
       <c r="B76" t="n">
-        <v>3.17624</v>
+        <v>5.11994</v>
       </c>
       <c r="C76" t="n">
-        <v>3176.24</v>
+        <v>5119.94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32032</v>
+        <v>2.32346</v>
       </c>
       <c r="B77" t="n">
-        <v>3.18928</v>
+        <v>5.13018</v>
       </c>
       <c r="C77" t="n">
-        <v>3189.28</v>
+        <v>5130.18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35087</v>
+        <v>2.35402</v>
       </c>
       <c r="B78" t="n">
-        <v>3.20215</v>
+        <v>5.14032</v>
       </c>
       <c r="C78" t="n">
-        <v>3202.15</v>
+        <v>5140.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38143</v>
+        <v>2.38457</v>
       </c>
       <c r="B79" t="n">
-        <v>3.2149</v>
+        <v>5.15031</v>
       </c>
       <c r="C79" t="n">
-        <v>3214.9</v>
+        <v>5150.31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41198</v>
+        <v>2.41512</v>
       </c>
       <c r="B80" t="n">
-        <v>3.22755</v>
+        <v>5.16011</v>
       </c>
       <c r="C80" t="n">
-        <v>3227.55</v>
+        <v>5160.11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44343</v>
+        <v>2.44657</v>
       </c>
       <c r="B81" t="n">
-        <v>3.2404</v>
+        <v>5.169930000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>3240.4</v>
+        <v>5169.93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.475</v>
+        <v>2.47814</v>
       </c>
       <c r="B82" t="n">
-        <v>3.25321</v>
+        <v>5.17962</v>
       </c>
       <c r="C82" t="n">
-        <v>3253.21</v>
+        <v>5179.62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50657</v>
+        <v>2.50972</v>
       </c>
       <c r="B83" t="n">
-        <v>3.26591</v>
+        <v>5.18908</v>
       </c>
       <c r="C83" t="n">
-        <v>3265.91</v>
+        <v>5189.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53815</v>
+        <v>2.54129</v>
       </c>
       <c r="B84" t="n">
-        <v>3.27846</v>
+        <v>5.19841</v>
       </c>
       <c r="C84" t="n">
-        <v>3278.46</v>
+        <v>5198.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56972</v>
+        <v>2.57287</v>
       </c>
       <c r="B85" t="n">
-        <v>3.29087</v>
+        <v>5.207590000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>3290.87</v>
+        <v>5207.59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60129</v>
+        <v>2.60444</v>
       </c>
       <c r="B86" t="n">
-        <v>3.30321</v>
+        <v>5.21653</v>
       </c>
       <c r="C86" t="n">
-        <v>3303.21</v>
+        <v>5216.53</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63287</v>
+        <v>2.63601</v>
       </c>
       <c r="B87" t="n">
-        <v>3.31543</v>
+        <v>5.22524</v>
       </c>
       <c r="C87" t="n">
-        <v>3315.43</v>
+        <v>5225.24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66444</v>
+        <v>2.66759</v>
       </c>
       <c r="B88" t="n">
-        <v>3.32752</v>
+        <v>5.23381</v>
       </c>
       <c r="C88" t="n">
-        <v>3327.52</v>
+        <v>5233.81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69601</v>
+        <v>2.69916</v>
       </c>
       <c r="B89" t="n">
-        <v>3.33947</v>
+        <v>5.24225</v>
       </c>
       <c r="C89" t="n">
-        <v>3339.47</v>
+        <v>5242.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72759</v>
+        <v>2.73073</v>
       </c>
       <c r="B90" t="n">
-        <v>3.35134</v>
+        <v>5.25051</v>
       </c>
       <c r="C90" t="n">
-        <v>3351.34</v>
+        <v>5250.51</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75916</v>
+        <v>2.76231</v>
       </c>
       <c r="B91" t="n">
-        <v>3.3631</v>
+        <v>5.25857</v>
       </c>
       <c r="C91" t="n">
-        <v>3363.1</v>
+        <v>5258.57</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79074</v>
+        <v>2.79388</v>
       </c>
       <c r="B92" t="n">
-        <v>3.37472</v>
+        <v>5.26646</v>
       </c>
       <c r="C92" t="n">
-        <v>3374.72</v>
+        <v>5266.46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82231</v>
+        <v>2.82545</v>
       </c>
       <c r="B93" t="n">
-        <v>3.38625</v>
+        <v>5.274220000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>3386.25</v>
+        <v>5274.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85388</v>
+        <v>2.85702</v>
       </c>
       <c r="B94" t="n">
-        <v>3.39769</v>
+        <v>5.28183</v>
       </c>
       <c r="C94" t="n">
-        <v>3397.69</v>
+        <v>5281.83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88546</v>
+        <v>2.8886</v>
       </c>
       <c r="B95" t="n">
-        <v>3.40902</v>
+        <v>5.28928</v>
       </c>
       <c r="C95" t="n">
-        <v>3409.02</v>
+        <v>5289.28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91703</v>
+        <v>2.92017</v>
       </c>
       <c r="B96" t="n">
-        <v>3.42023</v>
+        <v>5.29655</v>
       </c>
       <c r="C96" t="n">
-        <v>3420.23</v>
+        <v>5296.55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9486</v>
+        <v>2.95174</v>
       </c>
       <c r="B97" t="n">
-        <v>3.43136</v>
+        <v>5.30369</v>
       </c>
       <c r="C97" t="n">
-        <v>3431.36</v>
+        <v>5303.69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98017</v>
+        <v>2.98332</v>
       </c>
       <c r="B98" t="n">
-        <v>3.44238</v>
+        <v>5.310680000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>3442.38</v>
+        <v>5310.68</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01175</v>
+        <v>3.01414</v>
       </c>
       <c r="B99" t="n">
-        <v>3.45332</v>
+        <v>5.3175</v>
       </c>
       <c r="C99" t="n">
-        <v>3453.32</v>
+        <v>5317.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04332</v>
+        <v>3.04486</v>
       </c>
       <c r="B100" t="n">
-        <v>3.46416</v>
+        <v>5.324170000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>3464.16</v>
+        <v>5324.17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07489</v>
+        <v>3.07558</v>
       </c>
       <c r="B101" t="n">
-        <v>3.4749</v>
+        <v>5.33071</v>
       </c>
       <c r="C101" t="n">
-        <v>3474.9</v>
+        <v>5330.71</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10646</v>
+        <v>3.1063</v>
       </c>
       <c r="B102" t="n">
-        <v>3.48552</v>
+        <v>5.33711</v>
       </c>
       <c r="C102" t="n">
-        <v>3485.52</v>
+        <v>5337.11</v>
       </c>
     </row>
   </sheetData>
